--- a/FTC_Case3/4.SMDP/Paper_Revisions/3.Scenarios_FTC/RL/Learning_rate.xlsx
+++ b/FTC_Case3/4.SMDP/Paper_Revisions/3.Scenarios_FTC/RL/Learning_rate.xlsx
@@ -23,9 +23,12 @@
   </office:font-face-decls>
   <office:automatic-styles>
     <style:style style:name="co1" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="29.4mm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="28.54mm"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="13.56mm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="22.58mm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
@@ -41,11 +44,61 @@
       <table:table table:name="Sheet1" table:style-name="ta1">
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="3" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Alpha = 0.01</text:p>
           </table:table-cell>
-          <table:table-cell/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 0.02</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 0.05</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 0.0625</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 0.125</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 0.25</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 0.5</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Alpha = 1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Lower</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Upper</text:p>
+          </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -53,6 +106,62 @@
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="0.00015" calcext:value-type="float">
+            <text:p>0.00015</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="0.0003" calcext:value-type="float">
+            <text:p>0.0003</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -62,14 +171,120 @@
           <table:table-cell office:value-type="float" office:value="568" calcext:value-type="float">
             <text:p>568</text:p>
           </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="514" calcext:value-type="float">
+            <text:p>514</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
+            <text:p>47</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="597" calcext:value-type="float">
+            <text:p>597</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
+            <text:p>47</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="608" calcext:value-type="float">
+            <text:p>608</text:p>
+          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
             <text:p>45</text:p>
           </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="502" calcext:value-type="float">
+            <text:p>502</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="73" calcext:value-type="float">
+            <text:p>73</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="803" calcext:value-type="float">
+            <text:p>803</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="620" calcext:value-type="float">
+            <text:p>620</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="61" calcext:value-type="float">
+            <text:p>61</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="675" calcext:value-type="float">
+            <text:p>675</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="4.43" calcext:value-type="float">
+            <text:p>4.43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.56" calcext:value-type="float">
+            <text:p>4.56</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
           <table:table-cell office:value-type="float" office:value="562" calcext:value-type="float">
             <text:p>562</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="543" calcext:value-type="float">
+            <text:p>543</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="583" calcext:value-type="float">
+            <text:p>583</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="487" calcext:value-type="float">
+            <text:p>487</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="599" calcext:value-type="float">
+            <text:p>599</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
+            <text:p>612</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="306" calcext:value-type="float">
+            <text:p>306</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12400" calcext:value-type="float">
+            <text:p>12400</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="496" calcext:value-type="float">
+            <text:p>496</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="22500" calcext:value-type="float">
+            <text:p>22500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
@@ -78,6 +293,56 @@
           <table:table-cell office:value-type="float" office:value="630" calcext:value-type="float">
             <text:p>630</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="522" calcext:value-type="float">
+            <text:p>522</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="567" calcext:value-type="float">
+            <text:p>567</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="517" calcext:value-type="float">
+            <text:p>517</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="92" calcext:value-type="float">
+            <text:p>92</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="474" calcext:value-type="float">
+            <text:p>474</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="63" calcext:value-type="float">
+            <text:p>63</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="769" calcext:value-type="float">
+            <text:p>769</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="671" calcext:value-type="float">
+            <text:p>671</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="66" calcext:value-type="float">
@@ -86,6 +351,56 @@
           <table:table-cell office:value-type="float" office:value="732" calcext:value-type="float">
             <text:p>732</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="778" calcext:value-type="float">
+            <text:p>778</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="588" calcext:value-type="float">
+            <text:p>588</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
+            <text:p>52</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="687" calcext:value-type="float">
+            <text:p>687</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="499" calcext:value-type="float">
+            <text:p>499</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="615" calcext:value-type="float">
+            <text:p>615</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="535" calcext:value-type="float">
+            <text:p>535</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
@@ -94,6 +409,56 @@
           <table:table-cell office:value-type="float" office:value="618" calcext:value-type="float">
             <text:p>618</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
+            <text:p>518</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="64" calcext:value-type="float">
+            <text:p>64</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
+            <text:p>612</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
+            <text:p>51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="734" calcext:value-type="float">
+            <text:p>734</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="56" calcext:value-type="float">
+            <text:p>56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="722" calcext:value-type="float">
+            <text:p>722</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="59" calcext:value-type="float">
+            <text:p>59</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="681" calcext:value-type="float">
+            <text:p>681</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
+            <text:p>55</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="708" calcext:value-type="float">
+            <text:p>708</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="94" calcext:value-type="float">
+            <text:p>94</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="920" calcext:value-type="float">
+            <text:p>920</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="73" calcext:value-type="float">
@@ -102,6 +467,56 @@
           <table:table-cell office:value-type="float" office:value="632" calcext:value-type="float">
             <text:p>632</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
+            <text:p>518</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="527" calcext:value-type="float">
+            <text:p>527</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="658" calcext:value-type="float">
+            <text:p>658</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
+            <text:p>52</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="703" calcext:value-type="float">
+            <text:p>703</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="107" calcext:value-type="float">
+            <text:p>107</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1957" calcext:value-type="float">
+            <text:p>1957</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="223" calcext:value-type="float">
+            <text:p>223</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2705" calcext:value-type="float">
+            <text:p>2705</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
@@ -110,6 +525,139 @@
           <table:table-cell office:value-type="float" office:value="597" calcext:value-type="float">
             <text:p>597</text:p>
           </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
+            <text:p>518</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="629" calcext:value-type="float">
+            <text:p>629</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
+            <text:p>55</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="818" calcext:value-type="float">
+            <text:p>818</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="56" calcext:value-type="float">
+            <text:p>56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="545" calcext:value-type="float">
+            <text:p>545</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="288" calcext:value-type="float">
+            <text:p>288</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="10200" calcext:value-type="float">
+            <text:p>10200</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="626" calcext:value-type="float">
+            <text:p>626</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="503" calcext:value-type="float">
+            <text:p>503</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="614" calcext:value-type="float">
+            <text:p>614</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="600" calcext:value-type="float">
+            <text:p>600</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="59" calcext:value-type="float">
+            <text:p>59</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="586" calcext:value-type="float">
+            <text:p>586</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="552" calcext:value-type="float">
+            <text:p>552</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="566" calcext:value-type="float">
+            <text:p>566</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="535" calcext:value-type="float">
+            <text:p>535</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="748" calcext:value-type="float">
+            <text:p>748</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="82" calcext:value-type="float">
+            <text:p>82</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="638" calcext:value-type="float">
+            <text:p>638</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="54" calcext:value-type="float">
+            <text:p>54</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="509" calcext:value-type="float">
+            <text:p>509</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="507" calcext:value-type="float">
+            <text:p>507</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="614" calcext:value-type="float">
+            <text:p>614</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -122,11 +670,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2019-07-16T17:10:50.930164012</meta:creation-date>
-    <dc:date>2019-07-17T09:09:47.832992585</dc:date>
-    <meta:editing-duration>PT8M36S</meta:editing-duration>
-    <meta:editing-cycles>1</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="17" meta:object-count="0"/>
+    <dc:date>2019-07-18T09:59:43.337926931</dc:date>
+    <meta:editing-duration>PT21H53M4S</meta:editing-duration>
+    <meta:editing-cycles>13</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="164" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -137,26 +685,26 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">5198</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">4064</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">60448</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">5418</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">9</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">140</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">120</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
@@ -165,7 +713,7 @@
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1866</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">140</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">120</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -189,13 +737,14 @@
       </config:config-item-map-indexed>
     </config:config-item-set>
     <config:config-item-set config:name="ooo:configuration-settings">
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
       <config:config-item config:name="AllowPrintJobCancel" config:type="boolean">true</config:config-item>
       <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">vQH+/0Jyb3RoZXJfSExfTDgzNTBDRFdfc2VyaWVzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpCcm90aGVyX0hMX0w4MzUwQ0RXX3NlcmllcwAWAAMA3gAAAAAAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9QnJvdGhlcl9ITF9MODM1MENEV19zZXJpZXMKb3JpZW50YXRpb249UG9ydHJhaXQKY29waWVzPTEKY29sbGF0ZT1mYWxzZQptYXJnaW5kYWp1c3RtZW50PTAsMCwwLDAKY29sb3JkZXB0aD0yNApwc2xldmVsPTAKcGRmZGV2aWNlPTEKY29sb3JkZXZpY2U9MApQUERDb250ZXhEYXRhCkR1cGxleDpOb25lAFBhZ2VTaXplOkxldHRlcgBJbnB1dFNsb3Q6QXV0bwAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Brother_HL_L8350CDW_series</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
@@ -349,9 +898,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2019-07-17">0000-00-00</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2019-07-18">0000-00-00</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="12:15:02.117804634">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/FTC_Case3/4.SMDP/Paper_Revisions/3.Scenarios_FTC/RL/Learning_rate.xlsx
+++ b/FTC_Case3/4.SMDP/Paper_Revisions/3.Scenarios_FTC/RL/Learning_rate.xlsx
@@ -70,7 +70,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Alpha = 0.05</text:p>
+            <text:p>Alpha = 0.04</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string" calcext:value-type="string">
@@ -165,372 +165,372 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="514" calcext:value-type="float">
+            <text:p>514</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="568" calcext:value-type="float">
+            <text:p>568</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
+            <text:p>47</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="597" calcext:value-type="float">
+            <text:p>597</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
+            <text:p>47</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="608" calcext:value-type="float">
+            <text:p>608</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="502" calcext:value-type="float">
+            <text:p>502</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="73" calcext:value-type="float">
+            <text:p>73</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="803" calcext:value-type="float">
+            <text:p>803</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="620" calcext:value-type="float">
+            <text:p>620</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="61" calcext:value-type="float">
+            <text:p>61</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="675" calcext:value-type="float">
+            <text:p>675</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="4.43" calcext:value-type="float">
+            <text:p>4.43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="4.56" calcext:value-type="float">
+            <text:p>4.56</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="543" calcext:value-type="float">
+            <text:p>543</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="40" calcext:value-type="float">
+            <text:p>40</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="562" calcext:value-type="float">
+            <text:p>562</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="583" calcext:value-type="float">
+            <text:p>583</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="487" calcext:value-type="float">
+            <text:p>487</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="599" calcext:value-type="float">
+            <text:p>599</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
+            <text:p>612</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="306" calcext:value-type="float">
+            <text:p>306</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="12400" calcext:value-type="float">
+            <text:p>12400</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="496" calcext:value-type="float">
+            <text:p>496</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="22500" calcext:value-type="float">
+            <text:p>22500</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="522" calcext:value-type="float">
+            <text:p>522</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
+            <text:p>47</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="630" calcext:value-type="float">
+            <text:p>630</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="567" calcext:value-type="float">
+            <text:p>567</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="517" calcext:value-type="float">
+            <text:p>517</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="92" calcext:value-type="float">
+            <text:p>92</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="474" calcext:value-type="float">
+            <text:p>474</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="63" calcext:value-type="float">
+            <text:p>63</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="769" calcext:value-type="float">
+            <text:p>769</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
+            <text:p>50</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="671" calcext:value-type="float">
+            <text:p>671</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="678" calcext:value-type="float">
+            <text:p>678</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="61" calcext:value-type="float">
+            <text:p>61</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="732" calcext:value-type="float">
+            <text:p>732</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="588" calcext:value-type="float">
+            <text:p>588</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
+            <text:p>52</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="687" calcext:value-type="float">
+            <text:p>687</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="499" calcext:value-type="float">
+            <text:p>499</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="615" calcext:value-type="float">
+            <text:p>615</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="535" calcext:value-type="float">
+            <text:p>535</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
+            <text:p>518</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="618" calcext:value-type="float">
+            <text:p>618</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="64" calcext:value-type="float">
+            <text:p>64</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
+            <text:p>612</text:p>
+          </table:table-cell>
+          <table:table-cell/>
           <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
             <text:p>51</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="568" calcext:value-type="float">
-            <text:p>568</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
-            <text:p>41</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="514" calcext:value-type="float">
-            <text:p>514</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
-            <text:p>47</text:p>
+          <table:table-cell office:value-type="float" office:value="734" calcext:value-type="float">
+            <text:p>734</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="56" calcext:value-type="float">
+            <text:p>56</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="722" calcext:value-type="float">
+            <text:p>722</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="59" calcext:value-type="float">
+            <text:p>59</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="681" calcext:value-type="float">
+            <text:p>681</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
+            <text:p>55</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="708" calcext:value-type="float">
+            <text:p>708</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="94" calcext:value-type="float">
+            <text:p>94</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="920" calcext:value-type="float">
+            <text:p>920</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="632" calcext:value-type="float">
+            <text:p>632</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
+            <text:p>518</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="527" calcext:value-type="float">
+            <text:p>527</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="658" calcext:value-type="float">
+            <text:p>658</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
+            <text:p>52</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="703" calcext:value-type="float">
+            <text:p>703</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="107" calcext:value-type="float">
+            <text:p>107</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="1957" calcext:value-type="float">
+            <text:p>1957</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="223" calcext:value-type="float">
+            <text:p>223</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="2705" calcext:value-type="float">
+            <text:p>2705</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
+            <text:p>42</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
+            <text:p>518</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="597" calcext:value-type="float">
             <text:p>597</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="47" calcext:value-type="float">
-            <text:p>47</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="608" calcext:value-type="float">
-            <text:p>608</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="502" calcext:value-type="float">
-            <text:p>502</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="73" calcext:value-type="float">
-            <text:p>73</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="803" calcext:value-type="float">
-            <text:p>803</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
-            <text:p>46</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="620" calcext:value-type="float">
-            <text:p>620</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="61" calcext:value-type="float">
-            <text:p>61</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="675" calcext:value-type="float">
-            <text:p>675</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="4.43" calcext:value-type="float">
-            <text:p>4.43</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="4.56" calcext:value-type="float">
-            <text:p>4.56</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="562" calcext:value-type="float">
-            <text:p>562</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="543" calcext:value-type="float">
-            <text:p>543</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
-            <text:p>44</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="583" calcext:value-type="float">
-            <text:p>583</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
-            <text:p>41</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="487" calcext:value-type="float">
-            <text:p>487</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="599" calcext:value-type="float">
-            <text:p>599</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
-            <text:p>49</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
-            <text:p>612</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="306" calcext:value-type="float">
-            <text:p>306</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="12400" calcext:value-type="float">
-            <text:p>12400</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="496" calcext:value-type="float">
-            <text:p>496</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="22500" calcext:value-type="float">
-            <text:p>22500</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
-            <text:p>52</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="630" calcext:value-type="float">
-            <text:p>630</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
-            <text:p>43</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="522" calcext:value-type="float">
-            <text:p>522</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
-            <text:p>43</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
-            <text:p>495</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
-            <text:p>44</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="567" calcext:value-type="float">
-            <text:p>567</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
-            <text:p>49</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="517" calcext:value-type="float">
-            <text:p>517</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="92" calcext:value-type="float">
-            <text:p>92</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="474" calcext:value-type="float">
-            <text:p>474</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="63" calcext:value-type="float">
-            <text:p>63</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="769" calcext:value-type="float">
-            <text:p>769</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="671" calcext:value-type="float">
-            <text:p>671</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="66" calcext:value-type="float">
-            <text:p>66</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="732" calcext:value-type="float">
-            <text:p>732</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
-            <text:p>53</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="778" calcext:value-type="float">
-            <text:p>778</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="588" calcext:value-type="float">
-            <text:p>588</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
-            <text:p>52</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="687" calcext:value-type="float">
-            <text:p>687</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
-            <text:p>43</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
-            <text:p>495</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
-            <text:p>44</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="499" calcext:value-type="float">
-            <text:p>499</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
-            <text:p>45</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="615" calcext:value-type="float">
-            <text:p>615</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
-            <text:p>46</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="535" calcext:value-type="float">
-            <text:p>535</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="50" calcext:value-type="float">
-            <text:p>50</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="618" calcext:value-type="float">
-            <text:p>618</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
-            <text:p>42</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
-            <text:p>518</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="64" calcext:value-type="float">
-            <text:p>64</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="612" calcext:value-type="float">
-            <text:p>612</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
-            <text:p>51</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="734" calcext:value-type="float">
-            <text:p>734</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="56" calcext:value-type="float">
-            <text:p>56</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="722" calcext:value-type="float">
-            <text:p>722</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="59" calcext:value-type="float">
-            <text:p>59</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="681" calcext:value-type="float">
-            <text:p>681</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="55" calcext:value-type="float">
-            <text:p>55</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="708" calcext:value-type="float">
-            <text:p>708</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="94" calcext:value-type="float">
-            <text:p>94</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="920" calcext:value-type="float">
-            <text:p>920</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="73" calcext:value-type="float">
-            <text:p>73</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="632" calcext:value-type="float">
-            <text:p>632</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
-            <text:p>43</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
-            <text:p>495</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
-            <text:p>42</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
-            <text:p>518</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
-            <text:p>44</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="527" calcext:value-type="float">
-            <text:p>527</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
-            <text:p>48</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="658" calcext:value-type="float">
-            <text:p>658</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="52" calcext:value-type="float">
-            <text:p>52</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="703" calcext:value-type="float">
-            <text:p>703</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="107" calcext:value-type="float">
-            <text:p>107</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="1957" calcext:value-type="float">
-            <text:p>1957</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="223" calcext:value-type="float">
-            <text:p>223</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="2705" calcext:value-type="float">
-            <text:p>2705</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
-            <text:p>49</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="597" calcext:value-type="float">
-            <text:p>597</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="float" office:value="42" calcext:value-type="float">
-            <text:p>42</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="518" calcext:value-type="float">
-            <text:p>518</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
@@ -570,8 +570,8 @@
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
-            <text:p>49</text:p>
+          <table:table-cell office:value-type="float" office:value="44" calcext:value-type="float">
+            <text:p>44</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="503" calcext:value-type="float">
             <text:p>503</text:p>
@@ -607,8 +607,8 @@
           <table:table-cell table:number-columns-repeated="3"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
-            <text:p>53</text:p>
+          <table:table-cell office:value-type="float" office:value="48" calcext:value-type="float">
+            <text:p>48</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="566" calcext:value-type="float">
             <text:p>566</text:p>
@@ -637,8 +637,8 @@
           <table:table-cell table:number-columns-repeated="9"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="float" office:value="54" calcext:value-type="float">
-            <text:p>54</text:p>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="float" office:value="509" calcext:value-type="float">
             <text:p>509</text:p>
@@ -658,6 +658,283 @@
             <text:p>614</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="12"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="26"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.5</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.25</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.125</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.0625</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.04</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.02</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Beta = 0.01</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Time to mediate</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>RMSE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="558" calcext:value-type="float">
+            <text:p>558</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="650" calcext:value-type="float">
+            <text:p>650</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="57" calcext:value-type="float">
+            <text:p>57</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="562" calcext:value-type="float">
+            <text:p>562</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="578" calcext:value-type="float">
+            <text:p>578</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="489" calcext:value-type="float">
+            <text:p>489</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="551" calcext:value-type="float">
+            <text:p>551</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="517" calcext:value-type="float">
+            <text:p>517</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="575" calcext:value-type="float">
+            <text:p>575</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="79" calcext:value-type="float">
+            <text:p>79</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="660" calcext:value-type="float">
+            <text:p>660</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="489" calcext:value-type="float">
+            <text:p>489</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="517" calcext:value-type="float">
+            <text:p>517</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
+            <text:p>51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="523" calcext:value-type="float">
+            <text:p>523</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="495" calcext:value-type="float">
+            <text:p>495</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
+            <text:p>51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="522" calcext:value-type="float">
+            <text:p>522</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="522" calcext:value-type="float">
+            <text:p>522</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="88" calcext:value-type="float">
+            <text:p>88</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="654" calcext:value-type="float">
+            <text:p>654</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="45" calcext:value-type="float">
+            <text:p>45</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="502" calcext:value-type="float">
+            <text:p>502</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="46" calcext:value-type="float">
+            <text:p>46</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="535" calcext:value-type="float">
+            <text:p>535</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="51" calcext:value-type="float">
+            <text:p>51</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="538" calcext:value-type="float">
+            <text:p>538</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="43" calcext:value-type="float">
+            <text:p>43</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="551" calcext:value-type="float">
+            <text:p>551</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="float" office:value="41" calcext:value-type="float">
+            <text:p>41</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="487" calcext:value-type="float">
+            <text:p>487</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="float" office:value="53" calcext:value-type="float">
+            <text:p>53</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="550" calcext:value-type="float">
+            <text:p>550</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="float" office:value="49" calcext:value-type="float">
+            <text:p>49</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="float" office:value="517" calcext:value-type="float">
+            <text:p>517</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="24"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -670,11 +947,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2019-07-16T17:10:50.930164012</meta:creation-date>
-    <dc:date>2019-07-18T09:59:43.337926931</dc:date>
-    <meta:editing-duration>PT21H53M4S</meta:editing-duration>
-    <meta:editing-cycles>13</meta:editing-cycles>
+    <dc:date>2019-07-18T15:00:13.434371598</dc:date>
+    <meta:editing-duration>P1DT22M29S</meta:editing-duration>
+    <meta:editing-cycles>20</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="164" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="236" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -686,20 +963,20 @@
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaWidth" config:type="int">60448</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">5418</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">10837</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">20</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">27</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">9</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
